--- a/Alumno.xlsx
+++ b/Alumno.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESCUELA DE ADUANAS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\nuevoL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE70126-42B2-4B92-AEC7-82F33206A425}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja3" sheetId="3" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>HORARIO</t>
   </si>
@@ -38,9 +39,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Auxiliar de Despacho Aduanero (curso)</t>
   </si>
   <si>
@@ -177,12 +175,6 @@
   </si>
   <si>
     <t>FORMA DE PAGO</t>
-  </si>
-  <si>
-    <t>Pago Contado/Visa Net</t>
-  </si>
-  <si>
-    <t>Pago mensual</t>
   </si>
   <si>
     <t>Totalidad</t>
@@ -314,10 +306,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;S/&quot;#,##0.00;[Red]\-&quot;S/&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="&quot;S/&quot;#,##0.00;[Red]\-&quot;S/&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -800,33 +792,12 @@
   <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -844,36 +815,18 @@
     <xf numFmtId="14" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -883,59 +836,23 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,141 +885,216 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1139,7 +1131,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="0 Imagen"/>
+        <xdr:cNvPr id="8" name="0 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1185,7 +1183,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="2 Rectángulo redondeado"/>
+        <xdr:cNvPr id="9" name="2 Rectángulo redondeado">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1257,7 +1261,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="3 Rectángulo redondeado"/>
+        <xdr:cNvPr id="10" name="3 Rectángulo redondeado">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1323,7 +1333,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="4 CuadroTexto"/>
+        <xdr:cNvPr id="11" name="4 CuadroTexto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1386,112 +1402,6 @@
             <a:t>escuela</a:t>
           </a:r>
           <a:endParaRPr lang="es-PE" sz="1400" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="5 Rectángulo redondeado"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3028950" y="8096250"/>
-          <a:ext cx="409575" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE"/>
-            <a:t>X</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="6 Rectángulo redondeado"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1323975" y="8105775"/>
-          <a:ext cx="409575" cy="161926"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1762,11 +1672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,137 +1688,135 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="106">
         <v>43250</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="107"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="109"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="110"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1"/>
@@ -1918,481 +1826,477 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>4</v>
-      </c>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="10">
         <v>43250</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="A18" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="13"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="12" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38" t="s">
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="46"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -2403,675 +2307,671 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26"/>
+      <c r="B36" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="C36" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52" t="s">
+      <c r="F36" s="29"/>
+      <c r="G36" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="H36" s="31"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52" t="s">
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="35"/>
+      <c r="B39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55" t="s">
+      <c r="C39" s="35"/>
+      <c r="D39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="56"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
-      <c r="B39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="60" t="s">
-        <v>21</v>
-      </c>
+      <c r="E39" s="35"/>
       <c r="F39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="36"/>
+      <c r="F40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="86"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="1" t="s">
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="65"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="65"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="65"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="61"/>
-      <c r="F40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="62"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="64"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="64"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="64"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="66"/>
+        <v>63</v>
+      </c>
+      <c r="B50" s="65"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="67"/>
       <c r="E50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="67"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="F50" s="62"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="62"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="65"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="40"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="41"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="64"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="72" t="s">
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="73"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="77"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="78" t="s">
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="82" t="s">
+      <c r="B59" s="83"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="82" t="s">
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="86" t="s">
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="82" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="92"/>
-      <c r="J62" s="92"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="93"/>
+      <c r="E63" s="45"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="65"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="70"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="49"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="70"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="64" t="s">
+      <c r="G69" s="74"/>
+      <c r="H69" s="75"/>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="72"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="64"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="94" t="s">
+      <c r="G70" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="95"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="96"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="98"/>
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="100"/>
-      <c r="G68" s="100"/>
-      <c r="H68" s="101"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="98"/>
-      <c r="B69" s="99"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" s="102"/>
-      <c r="H69" s="103"/>
-    </row>
-    <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="104"/>
-      <c r="B70" s="105"/>
-      <c r="C70" s="105"/>
-      <c r="D70" s="105"/>
-      <c r="E70" s="105"/>
-      <c r="F70" s="100" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="H70" s="101"/>
+      <c r="H70" s="49"/>
     </row>
     <row r="71" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="106" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="107"/>
-      <c r="D72" s="107"/>
-      <c r="E72" s="107"/>
-      <c r="F72" s="107"/>
-      <c r="G72" s="108"/>
+      <c r="B72" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="52"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="109"/>
-      <c r="C73" s="110"/>
-      <c r="D73" s="110"/>
-      <c r="E73" s="110"/>
-      <c r="F73" s="110"/>
-      <c r="G73" s="111"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="55"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3079,6 +2979,54 @@
     <protectedRange sqref="E4 A5:A7 D5:D7 E9 C9:C10 A13:A14 D13 C14 G13 D17 A17 F19 H21:H22 D23:D24 F22:F24 B19:B26 F26 D26 H28 C27:C32 A9" name="Rango1_1"/>
   </protectedRanges>
   <mergeCells count="56">
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A59:H59"/>
     <mergeCell ref="B72:G73"/>
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A62:H62"/>
@@ -3087,54 +3035,6 @@
     <mergeCell ref="A66:H66"/>
     <mergeCell ref="A67:E70"/>
     <mergeCell ref="F69:H69"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Alumno.xlsx
+++ b/Alumno.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\nuevoL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\nuevoL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92591DA9-FDE4-48F0-8502-540F7CA92066}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B4D7A91B-0C95-4B72-9409-49DE4E932735}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Deudores!$A$1:$H$72</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Deudores!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -438,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -530,21 +530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -693,11 +678,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -767,9 +793,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -777,12 +800,12 @@
     <xf numFmtId="49" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -795,7 +818,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -808,16 +831,172 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,7 +1005,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,16 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,28 +1023,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -886,149 +1047,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1383,8 +1415,8 @@
   </sheetPr>
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53:H53"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,12 +1437,12 @@
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="1"/>
@@ -1431,10 +1463,10 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="1"/>
@@ -1455,10 +1487,10 @@
     <row r="3" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="1"/>
@@ -1477,13 +1509,13 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="2"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1507,10 +1539,10 @@
       <c r="D5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="112">
+      <c r="E5" s="53">
         <v>43255</v>
       </c>
-      <c r="F5" s="113"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="1"/>
@@ -1532,11 +1564,11 @@
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="5"/>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -1555,14 +1587,14 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
-      <c r="B7" s="121"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="108"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="1"/>
@@ -1631,18 +1663,18 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="116"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="119"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="115"/>
+      <c r="H10" s="49"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1669,16 +1701,16 @@
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1695,16 +1727,16 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="90"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1745,16 +1777,16 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1771,8 +1803,8 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="108"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1782,7 +1814,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="35"/>
+      <c r="L16" s="34"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1806,7 +1838,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="35"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1819,16 +1851,16 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1848,15 +1880,15 @@
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1876,13 +1908,13 @@
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="90"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1902,15 +1934,15 @@
       <c r="A21" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="36"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1927,12 +1959,12 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1940,7 +1972,7 @@
       <c r="G22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="36"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1960,17 +1992,17 @@
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="39"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="98"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="100"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="71"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1990,17 +2022,17 @@
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="40"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="90"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2020,13 +2052,13 @@
       <c r="A25" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="90"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2046,7 +2078,7 @@
       <c r="A26" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="31" t="s">
         <v>27</v>
       </c>
@@ -2054,9 +2086,9 @@
       <c r="E26" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="101"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="103"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2073,16 +2105,16 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="105"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="108"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2103,14 +2135,14 @@
         <v>30</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="43"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2131,12 +2163,12 @@
         <v>32</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="90"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2157,12 +2189,12 @@
         <v>33</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="90"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="67"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2183,12 +2215,12 @@
         <v>34</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="90"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="67"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2209,12 +2241,12 @@
         <v>35</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="90"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="67"/>
       <c r="I32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2253,17 +2285,17 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="74" t="s">
+    <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2280,16 +2312,16 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="88"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="45" t="s">
+      <c r="A35" s="119"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="48"/>
+      <c r="H35" s="122"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2305,23 +2337,23 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+    <row r="36" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="47"/>
       <c r="B36" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="33"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="49"/>
-      <c r="G36" s="46" t="s">
+      <c r="F36" s="120"/>
+      <c r="G36" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="48"/>
+      <c r="H36" s="123"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2351,16 +2383,16 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2377,16 +2409,16 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="95"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="97"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="85"/>
       <c r="F39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="92"/>
-      <c r="H39" s="93"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="81"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2427,16 +2459,16 @@
       <c r="V40" s="1"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2453,14 +2485,14 @@
       <c r="V41" s="1"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="65"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="79"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2477,14 +2509,14 @@
       <c r="V42" s="1"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="65"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="79"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2501,14 +2533,14 @@
       <c r="V43" s="1"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="65"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="79"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2525,14 +2557,14 @@
       <c r="V44" s="1"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="65"/>
+      <c r="A45" s="77"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="79"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2559,16 +2591,16 @@
       <c r="H46" s="22"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="74" t="s">
+      <c r="A47" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2589,12 +2621,12 @@
         <v>47</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="77"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="91"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -2614,17 +2646,17 @@
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="78"/>
-      <c r="C49" s="64" t="s">
+      <c r="B49" s="92"/>
+      <c r="C49" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="65"/>
+      <c r="D49" s="79"/>
       <c r="E49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="63"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="65"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="79"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -2644,13 +2676,13 @@
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="65"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="79"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2667,16 +2699,16 @@
       <c r="V50" s="1"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="63"/>
-      <c r="B51" s="64" t="s">
+      <c r="A51" s="77"/>
+      <c r="B51" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="65"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="79"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2695,24 +2727,24 @@
     <row r="52" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="38"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="37"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="13"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="81"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="95"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -2753,16 +2785,16 @@
       <c r="V54" s="1"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="84"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="98"/>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
       <c r="K55" s="1"/>
@@ -2779,16 +2811,16 @@
       <c r="V55" s="1"/>
     </row>
     <row r="56" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="59"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="88"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
       <c r="K56" s="1"/>
@@ -2805,16 +2837,16 @@
       <c r="V56" s="1"/>
     </row>
     <row r="57" spans="1:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="57" t="s">
+      <c r="A57" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="59"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="88"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="1"/>
@@ -2831,16 +2863,16 @@
       <c r="V57" s="1"/>
     </row>
     <row r="58" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="85" t="s">
+      <c r="A58" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="87"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="101"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="1"/>
@@ -2857,16 +2889,16 @@
       <c r="V58" s="1"/>
     </row>
     <row r="59" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="57" t="s">
+      <c r="A59" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="59"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="88"/>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="1"/>
@@ -2883,16 +2915,16 @@
       <c r="V59" s="1"/>
     </row>
     <row r="60" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="57" t="s">
+      <c r="A60" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="59"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="88"/>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="1"/>
@@ -2909,16 +2941,16 @@
       <c r="V60" s="1"/>
     </row>
     <row r="61" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="60" t="s">
+      <c r="A61" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="62"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="110"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="1"/>
@@ -2963,12 +2995,12 @@
         <v>61</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="65"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="79"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -2985,14 +3017,14 @@
       <c r="V63" s="1"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="65"/>
+      <c r="A64" s="77"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="79"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -3009,14 +3041,14 @@
       <c r="V64" s="1"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="65"/>
+      <c r="A65" s="77"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="79"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -3033,13 +3065,13 @@
       <c r="V65" s="1"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="66" t="s">
+      <c r="A66" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="67"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
       <c r="H66" s="17"/>
@@ -3059,75 +3091,92 @@
       <c r="V66" s="1"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="68"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
+      <c r="A67" s="113"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="68"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="72" t="s">
+      <c r="A68" s="113"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="G68" s="72"/>
-      <c r="H68" s="73"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="118"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="70"/>
-      <c r="B69" s="71"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="71"/>
+      <c r="A69" s="115"/>
+      <c r="B69" s="116"/>
+      <c r="C69" s="116"/>
+      <c r="D69" s="116"/>
+      <c r="E69" s="116"/>
       <c r="F69" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G69" s="34"/>
+      <c r="G69" s="33"/>
       <c r="H69" s="18"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="53"/>
+      <c r="C71" s="103"/>
+      <c r="D71" s="103"/>
+      <c r="E71" s="103"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="104"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="54"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="56"/>
+      <c r="B72" s="105"/>
+      <c r="C72" s="106"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="106"/>
+      <c r="F72" s="106"/>
+      <c r="G72" s="107"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="60">
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="A16:B16"/>
+  <mergeCells count="59">
+    <mergeCell ref="B71:G72"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A66:E69"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A35:E35"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B21:F21"/>
@@ -3140,39 +3189,21 @@
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="C29:H29"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="B71:G72"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="A64:H64"/>
-    <mergeCell ref="A65:H65"/>
-    <mergeCell ref="A66:E69"/>
-    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.23622047244093999" right="0.23622047244093999" top="0.74803149606299002" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Alumno.xlsx
+++ b/Alumno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\nuevoL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B4D7A91B-0C95-4B72-9409-49DE4E932735}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{28FD2827-DF61-4AE2-BB98-51DA1FF9AD06}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,7 +276,7 @@
         <color rgb="FF333333"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">Depósito en cuenta ahorro del Banco BBVA  0011 0094 0200072572 </t>
+      <t>Pagar en el Scokitabank con su DNI a las cuentas de Escuela de Aduanas</t>
     </r>
   </si>
 </sst>
@@ -438,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -676,21 +676,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -719,11 +704,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -843,6 +865,204 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -858,209 +1078,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1415,8 +1446,8 @@
   </sheetPr>
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,12 +1468,12 @@
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="1"/>
@@ -1463,10 +1494,10 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="1"/>
@@ -1509,13 +1540,13 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
       <c r="H4" s="2"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1539,10 +1570,10 @@
       <c r="D5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="119">
         <v>43255</v>
       </c>
-      <c r="F5" s="54"/>
+      <c r="F5" s="120"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="1"/>
@@ -1564,11 +1595,11 @@
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
       <c r="D6" s="46"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="5"/>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -1587,14 +1618,14 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="115"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="1"/>
@@ -1667,10 +1698,10 @@
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="8" t="s">
         <v>6</v>
       </c>
@@ -1701,16 +1732,16 @@
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1731,12 +1762,12 @@
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1777,16 +1808,16 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1803,8 +1834,8 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="63"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1851,16 +1882,16 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1880,15 +1911,15 @@
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
       <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="93"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1908,13 +1939,13 @@
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="93"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1934,11 +1965,11 @@
       <c r="A21" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="2" t="s">
         <v>15</v>
       </c>
@@ -1962,9 +1993,9 @@
       <c r="A22" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
       <c r="E22" s="5" t="s">
         <v>17</v>
       </c>
@@ -2000,9 +2031,9 @@
       <c r="E23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="71"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="102"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2030,9 +2061,9 @@
       <c r="E24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="93"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2052,13 +2083,13 @@
       <c r="A25" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="67"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="93"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2086,9 +2117,9 @@
       <c r="E26" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="105"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2105,16 +2136,16 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="110"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2135,10 +2166,10 @@
         <v>30</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="67"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="93"/>
       <c r="G28" s="2" t="s">
         <v>31</v>
       </c>
@@ -2163,12 +2194,12 @@
         <v>32</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="67"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="93"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2189,12 +2220,12 @@
         <v>33</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="67"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="93"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2215,12 +2246,12 @@
         <v>34</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="67"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="93"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2241,12 +2272,12 @@
         <v>35</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="67"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="93"/>
       <c r="I32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2286,16 +2317,16 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2312,16 +2343,16 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="121"/>
+      <c r="A35" s="122"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="126"/>
       <c r="G35" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="122"/>
+      <c r="H35" s="52"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2349,11 +2380,11 @@
       <c r="E36" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="120"/>
+      <c r="F36" s="51"/>
       <c r="G36" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="123"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2383,16 +2414,16 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2409,16 +2440,16 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="85"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="99"/>
       <c r="F39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="80"/>
-      <c r="H39" s="81"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="95"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2459,16 +2490,16 @@
       <c r="V40" s="1"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2485,14 +2516,14 @@
       <c r="V41" s="1"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="79"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="68"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2509,14 +2540,14 @@
       <c r="V42" s="1"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="77"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="79"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="68"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2533,14 +2564,14 @@
       <c r="V43" s="1"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="77"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="79"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="68"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2557,14 +2588,14 @@
       <c r="V44" s="1"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="79"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="68"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2591,16 +2622,16 @@
       <c r="H46" s="22"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2621,12 +2652,12 @@
         <v>47</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="91"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="80"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -2646,17 +2677,17 @@
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="92"/>
-      <c r="C49" s="78" t="s">
+      <c r="B49" s="81"/>
+      <c r="C49" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="79"/>
+      <c r="D49" s="68"/>
       <c r="E49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="77"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="79"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="68"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -2676,13 +2707,13 @@
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="79"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="68"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2699,16 +2730,16 @@
       <c r="V50" s="1"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="77"/>
-      <c r="B51" s="78" t="s">
+      <c r="A51" s="66"/>
+      <c r="B51" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="79"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="68"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2739,12 +2770,12 @@
         <v>53</v>
       </c>
       <c r="B53" s="13"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="95"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="84"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -2785,16 +2816,16 @@
       <c r="V54" s="1"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="96" t="s">
+      <c r="A55" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="97"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="98"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="87"/>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
       <c r="K55" s="1"/>
@@ -2811,16 +2842,16 @@
       <c r="V55" s="1"/>
     </row>
     <row r="56" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="86" t="s">
+      <c r="A56" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="88"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="62"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
       <c r="K56" s="1"/>
@@ -2837,16 +2868,16 @@
       <c r="V56" s="1"/>
     </row>
     <row r="57" spans="1:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="87"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="88"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="62"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="1"/>
@@ -2863,16 +2894,16 @@
       <c r="V57" s="1"/>
     </row>
     <row r="58" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="99" t="s">
+      <c r="A58" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="100"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="100"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="101"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="90"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="1"/>
@@ -2889,16 +2920,16 @@
       <c r="V58" s="1"/>
     </row>
     <row r="59" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="86" t="s">
+      <c r="A59" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="88"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="62"/>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="1"/>
@@ -2915,16 +2946,16 @@
       <c r="V59" s="1"/>
     </row>
     <row r="60" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="86" t="s">
+      <c r="A60" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="87"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="87"/>
-      <c r="H60" s="88"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="62"/>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="1"/>
@@ -2941,16 +2972,16 @@
       <c r="V60" s="1"/>
     </row>
     <row r="61" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="108" t="s">
+      <c r="A61" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="109"/>
-      <c r="C61" s="109"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="109"/>
-      <c r="F61" s="109"/>
-      <c r="G61" s="109"/>
-      <c r="H61" s="110"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="65"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="1"/>
@@ -2995,12 +3026,12 @@
         <v>61</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="79"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="68"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -3017,14 +3048,14 @@
       <c r="V63" s="1"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="77"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="79"/>
+      <c r="A64" s="66"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="68"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -3041,14 +3072,14 @@
       <c r="V64" s="1"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="77"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="79"/>
+      <c r="A65" s="66"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="68"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -3065,13 +3096,13 @@
       <c r="V65" s="1"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="111" t="s">
+      <c r="A66" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="112"/>
-      <c r="C66" s="112"/>
-      <c r="D66" s="112"/>
-      <c r="E66" s="112"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
       <c r="H66" s="17"/>
@@ -3091,33 +3122,33 @@
       <c r="V66" s="1"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="113"/>
-      <c r="B67" s="114"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
+      <c r="A67" s="71"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="113"/>
-      <c r="B68" s="114"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="114"/>
-      <c r="E68" s="114"/>
-      <c r="F68" s="117" t="s">
+      <c r="A68" s="71"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="G68" s="117"/>
-      <c r="H68" s="118"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="76"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="115"/>
-      <c r="B69" s="116"/>
-      <c r="C69" s="116"/>
-      <c r="D69" s="116"/>
-      <c r="E69" s="116"/>
+      <c r="A69" s="73"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
       <c r="F69" s="16" t="s">
         <v>64</v>
       </c>
@@ -3125,34 +3156,66 @@
       <c r="H69" s="18"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B71" s="102" t="s">
+      <c r="B71" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="103"/>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="103"/>
-      <c r="G71" s="104"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="56"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="105"/>
-      <c r="C72" s="106"/>
-      <c r="D72" s="106"/>
-      <c r="E72" s="106"/>
-      <c r="F72" s="106"/>
-      <c r="G72" s="107"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="59"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="59">
-    <mergeCell ref="B71:G72"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="A64:H64"/>
-    <mergeCell ref="A65:H65"/>
-    <mergeCell ref="A66:E69"/>
-    <mergeCell ref="F68:H68"/>
+  <mergeCells count="60">
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
     <mergeCell ref="A59:H59"/>
     <mergeCell ref="A47:H47"/>
     <mergeCell ref="C48:H48"/>
@@ -3165,45 +3228,14 @@
     <mergeCell ref="A56:H56"/>
     <mergeCell ref="A57:H57"/>
     <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B71:G72"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A66:E69"/>
+    <mergeCell ref="F68:H68"/>
   </mergeCells>
   <pageMargins left="0.23622047244093999" right="0.23622047244093999" top="0.74803149606299002" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="portrait" r:id="rId1"/>
